--- a/taller_io/solution/ejercicio_2/output.xlsx
+++ b/taller_io/solution/ejercicio_2/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>redondeado</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>valor final</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,9 +491,6 @@
       <c r="G2" t="n">
         <v>6500</v>
       </c>
-      <c r="H2" t="n">
-        <v>6324.999999999999</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -526,9 +518,6 @@
       <c r="G3" t="n">
         <v>7000</v>
       </c>
-      <c r="H3" t="n">
-        <v>6899.999999999999</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -556,9 +545,6 @@
       <c r="G4" t="n">
         <v>6000</v>
       </c>
-      <c r="H4" t="n">
-        <v>5750</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -586,9 +572,6 @@
       <c r="G5" t="n">
         <v>6000</v>
       </c>
-      <c r="H5" t="n">
-        <v>5750</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,9 +599,6 @@
       <c r="G6" t="n">
         <v>6500</v>
       </c>
-      <c r="H6" t="n">
-        <v>6324.999999999999</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -646,9 +626,6 @@
       <c r="G7" t="n">
         <v>5000</v>
       </c>
-      <c r="H7" t="n">
-        <v>4600</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,9 +653,6 @@
       <c r="G8" t="n">
         <v>7000</v>
       </c>
-      <c r="H8" t="n">
-        <v>6899.999999999999</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -706,9 +680,6 @@
       <c r="G9" t="n">
         <v>7000</v>
       </c>
-      <c r="H9" t="n">
-        <v>6899.999999999999</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -736,9 +707,6 @@
       <c r="G10" t="n">
         <v>10500</v>
       </c>
-      <c r="H10" t="n">
-        <v>10350</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -766,9 +734,6 @@
       <c r="G11" t="n">
         <v>15000</v>
       </c>
-      <c r="H11" t="n">
-        <v>14950</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -796,9 +761,6 @@
       <c r="G12" t="n">
         <v>10000</v>
       </c>
-      <c r="H12" t="n">
-        <v>9775</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -826,9 +788,6 @@
       <c r="G13" t="n">
         <v>10000</v>
       </c>
-      <c r="H13" t="n">
-        <v>9775</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -856,9 +815,6 @@
       <c r="G14" t="n">
         <v>10000</v>
       </c>
-      <c r="H14" t="n">
-        <v>9775</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -886,9 +842,6 @@
       <c r="G15" t="n">
         <v>28000</v>
       </c>
-      <c r="H15" t="n">
-        <v>27600</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -916,9 +869,6 @@
       <c r="G16" t="n">
         <v>75000</v>
       </c>
-      <c r="H16" t="n">
-        <v>74750</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -946,9 +896,6 @@
       <c r="G17" t="n">
         <v>67000</v>
       </c>
-      <c r="H17" t="n">
-        <v>66700</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,9 +923,6 @@
       <c r="G18" t="n">
         <v>5500</v>
       </c>
-      <c r="H18" t="n">
-        <v>5175</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1006,9 +950,6 @@
       <c r="G19" t="n">
         <v>5000</v>
       </c>
-      <c r="H19" t="n">
-        <v>4600</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1036,9 +977,6 @@
       <c r="G20" t="n">
         <v>5000</v>
       </c>
-      <c r="H20" t="n">
-        <v>4600</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1066,9 +1004,6 @@
       <c r="G21" t="n">
         <v>5000</v>
       </c>
-      <c r="H21" t="n">
-        <v>4600</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1096,9 +1031,6 @@
       <c r="G22" t="n">
         <v>5000</v>
       </c>
-      <c r="H22" t="n">
-        <v>4600</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1126,9 +1058,6 @@
       <c r="G23" t="n">
         <v>5500</v>
       </c>
-      <c r="H23" t="n">
-        <v>5175</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1156,9 +1085,6 @@
       <c r="G24" t="n">
         <v>8500</v>
       </c>
-      <c r="H24" t="n">
-        <v>8049.999999999999</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1186,9 +1112,6 @@
       <c r="G25" t="n">
         <v>11000</v>
       </c>
-      <c r="H25" t="n">
-        <v>10925</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1216,9 +1139,6 @@
       <c r="G26" t="n">
         <v>2000</v>
       </c>
-      <c r="H26" t="n">
-        <v>1955</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1246,9 +1166,6 @@
       <c r="G27" t="n">
         <v>4500</v>
       </c>
-      <c r="H27" t="n">
-        <v>4025</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1276,9 +1193,6 @@
       <c r="G28" t="n">
         <v>4500</v>
       </c>
-      <c r="H28" t="n">
-        <v>4025</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1306,9 +1220,6 @@
       <c r="G29" t="n">
         <v>4500</v>
       </c>
-      <c r="H29" t="n">
-        <v>4025</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1336,9 +1247,6 @@
       <c r="G30" t="n">
         <v>3500</v>
       </c>
-      <c r="H30" t="n">
-        <v>3450</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1366,9 +1274,6 @@
       <c r="G31" t="n">
         <v>4500</v>
       </c>
-      <c r="H31" t="n">
-        <v>4025</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1396,9 +1301,6 @@
       <c r="G32" t="n">
         <v>7500</v>
       </c>
-      <c r="H32" t="n">
-        <v>7474.999999999999</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1426,9 +1328,6 @@
       <c r="G33" t="n">
         <v>4500</v>
       </c>
-      <c r="H33" t="n">
-        <v>4025</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1456,9 +1355,6 @@
       <c r="G34" t="n">
         <v>4500</v>
       </c>
-      <c r="H34" t="n">
-        <v>4025</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1486,9 +1382,6 @@
       <c r="G35" t="n">
         <v>5000</v>
       </c>
-      <c r="H35" t="n">
-        <v>4600</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1516,9 +1409,6 @@
       <c r="G36" t="n">
         <v>4500</v>
       </c>
-      <c r="H36" t="n">
-        <v>4025</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1546,9 +1436,6 @@
       <c r="G37" t="n">
         <v>7000</v>
       </c>
-      <c r="H37" t="n">
-        <v>6899.999999999999</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1576,9 +1463,6 @@
       <c r="G38" t="n">
         <v>7000</v>
       </c>
-      <c r="H38" t="n">
-        <v>6899.999999999999</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1604,9 +1488,6 @@
         <v>11500</v>
       </c>
       <c r="G39" t="n">
-        <v>11500</v>
-      </c>
-      <c r="H39" t="n">
         <v>11500</v>
       </c>
     </row>
